--- a/Test Data/NGC_1826_Add_Devices_In_Multiple_Point_Wizard.xlsx
+++ b/Test Data/NGC_1826_Add_Devices_In_Multiple_Point_Wizard.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Devices</t>
   </si>
@@ -88,22 +88,19 @@
     <t>410QRM</t>
   </si>
   <si>
-    <t>460 PH</t>
-  </si>
-  <si>
-    <t>410 TSM</t>
-  </si>
-  <si>
-    <t>410 SNM</t>
-  </si>
-  <si>
-    <t>410 DDM</t>
-  </si>
-  <si>
     <t>430LPBSB</t>
   </si>
   <si>
-    <t>421 CP-I</t>
+    <t>460PH</t>
+  </si>
+  <si>
+    <t>410TSM</t>
+  </si>
+  <si>
+    <t>410DDM Loop</t>
+  </si>
+  <si>
+    <t>421CP-I</t>
   </si>
 </sst>
 </file>
@@ -728,7 +725,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,7 +740,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="12">
         <v>1</v>
@@ -751,7 +748,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
@@ -775,7 +772,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
@@ -791,7 +788,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
@@ -799,7 +796,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
